--- a/examples/reports/az-az/ProposalsHistoryTemplate.xlsx
+++ b/examples/reports/az-az/ProposalsHistoryTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Предложения" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Детали" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Təkliflər" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Təfərrüatlar" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -485,13 +485,13 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="25.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="44"/>
@@ -687,13 +687,13 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="25.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.45"/>
